--- a/megamoveisalagoas-main/site/planinha Produtos/produtos.xlsx
+++ b/megamoveisalagoas-main/site/planinha Produtos/produtos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M\Documents\GitHub\megamoveisalagoas\megamoveisalagoas-main\site\planinha Produtos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B46892A-3F88-44B7-852F-E5D54AA04B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1501597A-3742-490A-A015-C964E21C8E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16395" yWindow="4575" windowWidth="11610" windowHeight="6855" xr2:uid="{E26C1B80-42C4-4160-9943-E5044CAF4B9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E26C1B80-42C4-4160-9943-E5044CAF4B9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>2499.9</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>1999.9</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>Sala de Jantar</t>
   </si>
   <si>
-    <t>FALSE</t>
-  </si>
-  <si>
     <t>Mesa com tampo em vidro + 6 cadeiras</t>
   </si>
   <si>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t>img\img produtos\padrao.png</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
   </si>
 </sst>
 </file>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046A5910-9C89-43EE-ABF4-1EF7CA7C585B}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -565,19 +565,19 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -585,16 +585,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
       </c>
       <c r="D3">
         <v>1899</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F3">
         <v>1599</v>
@@ -603,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -614,25 +614,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
       <c r="D4">
         <v>1299</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -640,25 +640,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -666,16 +666,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>899</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F6">
         <v>749</v>
@@ -684,10 +684,10 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -695,25 +695,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>599</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -721,25 +721,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>799</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -747,16 +747,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>1299</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F9">
         <v>1099</v>
@@ -765,10 +765,10 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -776,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -785,16 +785,16 @@
         <v>899</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -802,25 +802,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>1599</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
